--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>816651.4348601893</v>
+        <v>856950.4477438758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889763</v>
+        <v>337002.2430554241</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8038245.454783056</v>
+        <v>8020643.073145782</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.68827609322837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>49.31110394229552</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>227.7664834517757</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>88.41083083990581</v>
       </c>
       <c r="U9" t="n">
-        <v>125.6384340685011</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>283.2346180633609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1503,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>126.9754573707989</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.830387588862576</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1667,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>116.1430940756185</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>219.0570128933253</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1938,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -2059,13 +2061,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>155.4526127311943</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8819313525586</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>219.0570128933256</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56.88196987815795</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>355.5467565582664</v>
       </c>
       <c r="H23" t="n">
-        <v>307.1861186321487</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="H25" t="n">
-        <v>110.686079378997</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
-        <v>108.0481078432942</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>41.75100837039722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0.8335894988186328</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>28.63557422134493</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>115.9118647420295</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>403.4060166257941</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>32.64956439617006</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>105.3980171505017</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>162.336490673523</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>123.2755971265072</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.465802816548446</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>234.4871813790491</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>23.92928816336159</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>84.67670117615927</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3630,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>126.9368849988965</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>158.9897392454097</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>5.526566520008605</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.693200015577853</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.60620160013918</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>321.5584859445105</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.998219257061432</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="D46" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>290.1981659616912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4504,16 +4506,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.5167634983095</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>710.5167634983095</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>710.5167634983095</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>710.5167634983095</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>467.0679868542093</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G5" t="n">
-        <v>223.6192102101091</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729609</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729609</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
         <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057941</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686983</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759377</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185857</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424096</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424096</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424096</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424096</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424096</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424096</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>710.5167634983095</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>710.5167634983095</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.5167634983095</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299845</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299845</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299845</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299845</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299845</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299845</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299845</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299845</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
         <v>144.6387031680501</v>
@@ -4653,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195422</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084248</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973073</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>914.2479596093281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>679.0958513775854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299845</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>46.59526811792571</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014789</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>521.1660470154206</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>521.1660470154206</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D8" t="n">
-        <v>521.1660470154206</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>521.1660470154206</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>255.2650026197978</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800419</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>787.0670914110435</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>521.1660470154206</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>521.1660470154206</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>521.1660470154206</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>466.183833194304</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>394.933760794076</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>600.5536970360757</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>701.3359414260467</v>
       </c>
       <c r="U9" t="n">
-        <v>926.0606266465643</v>
+        <v>701.3359414260467</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148216</v>
+        <v>466.183833194304</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>466.183833194304</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>466.183833194304</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>466.183833194304</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.7312344186087</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
-        <v>439.7312344186087</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1485.892406545185</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X11" t="n">
-        <v>1112.426648284105</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y11" t="n">
-        <v>826.3310744827304</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="12">
@@ -5121,34 +5123,34 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I13" t="n">
         <v>99.59950625323012</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.416431066817</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.416431066817</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D14" t="n">
-        <v>1011.150732460067</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E14" t="n">
-        <v>1011.150732460067</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>600.1648276704593</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>182.2010195686462</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2692.269911635533</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2516.092423949703</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2297.457756921766</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2043.695971559857</v>
       </c>
       <c r="V14" t="n">
-        <v>2112.324418312743</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.555763042629</v>
+        <v>1712.633084216287</v>
       </c>
       <c r="X14" t="n">
-        <v>1759.555763042629</v>
+        <v>1339.167325955207</v>
       </c>
       <c r="Y14" t="n">
-        <v>1369.416431066817</v>
+        <v>1339.167325955207</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424003</v>
@@ -5355,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5394,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>319.1723320447965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C16" t="n">
-        <v>319.1723320447965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D16" t="n">
-        <v>319.1723320447965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E16" t="n">
-        <v>171.2592384624033</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F16" t="n">
-        <v>171.2592384624033</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>171.2592384624033</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T16" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U16" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V16" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W16" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X16" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y16" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2310.5492509541</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C17" t="n">
-        <v>1941.586734013689</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D17" t="n">
-        <v>1583.321035406938</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E17" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>368.5830699172734</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5519,13 +5521,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="18">
@@ -5574,10 +5576,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
@@ -5595,16 +5597,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5677,40 +5679,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1878.515311311824</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C20" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E20" t="n">
         <v>1363.553390680693</v>
@@ -5747,13 +5749,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224075</v>
@@ -5768,10 +5770,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
@@ -5786,16 +5788,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5850,22 +5852,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2080.419623862616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2080.419623862616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2080.419623862616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2080.419623862616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2080.419623862616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S22" t="n">
-        <v>2482.860667836386</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T22" t="n">
-        <v>2482.860667836386</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U22" t="n">
-        <v>2482.860667836386</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V22" t="n">
-        <v>2482.860667836386</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W22" t="n">
-        <v>2482.860667836386</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X22" t="n">
-        <v>2482.860667836386</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2262.068088692856</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037878</v>
+        <v>1568.12097575261</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.181703431127</v>
+        <v>824.0670245476149</v>
       </c>
       <c r="F23" t="n">
-        <v>782.1957986415198</v>
+        <v>413.0811197580073</v>
       </c>
       <c r="G23" t="n">
-        <v>364.2319905397067</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036446</v>
@@ -5993,13 +5995,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6029,10 +6031,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6111,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="G25" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036446</v>
@@ -6151,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>500.8207968750362</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V25" t="n">
-        <v>500.8207968750362</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.4036268380756</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2105.048665729206</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1736.086148788794</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>1377.820450182044</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>992.0321975837994</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>581.0462927941919</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>163.0824846923788</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2105.048665729206</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2105.048665729206</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6315,31 +6317,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C28" t="n">
-        <v>559.1928012785276</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D28" t="n">
-        <v>559.1928012785276</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E28" t="n">
-        <v>559.1928012785276</v>
+        <v>359.423311480511</v>
       </c>
       <c r="F28" t="n">
-        <v>517.0200655508536</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1190.010945960184</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C29" t="n">
-        <v>821.0484290197721</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D29" t="n">
-        <v>821.0484290197721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E29" t="n">
-        <v>821.0484290197721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0625242301646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0625242301646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>82.86780426616741</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6464,10 +6466,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V29" t="n">
-        <v>1916.245359491378</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W29" t="n">
-        <v>1563.476704221264</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X29" t="n">
-        <v>1190.010945960184</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y29" t="n">
-        <v>1190.010945960184</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6558,25 +6560,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942404</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124031</v>
+        <v>2431.919740793791</v>
       </c>
       <c r="T31" t="n">
-        <v>108.9687959810048</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="U31" t="n">
-        <v>99.5995062532301</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="V31" t="n">
-        <v>99.5995062532301</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="W31" t="n">
-        <v>99.5995062532301</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="X31" t="n">
-        <v>99.5995062532301</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.5995062532301</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>576.3714747656866</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C32" t="n">
-        <v>207.4089578252748</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="D32" t="n">
-        <v>207.4089578252748</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>1353.070407453419</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>942.0845026638115</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
@@ -6704,46 +6706,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2664.169733042294</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2410.407947680385</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2079.345060336814</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>1726.5764050667</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.11064680562</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y32" t="n">
-        <v>962.9713148298083</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6783,37 +6785,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.1394333084171</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>500.1394333084171</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>500.1394333084171</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>500.1394333084171</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>500.1394333084171</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>500.1394333084171</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.1394333084171</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C35" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D35" t="n">
-        <v>891.446759560896</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E35" t="n">
-        <v>505.6585069626518</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>505.6585069626518</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6953,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X35" t="n">
-        <v>1639.851790143458</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y35" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,28 +7037,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>224.4233909876365</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C37" t="n">
-        <v>224.4233909876365</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D37" t="n">
-        <v>224.4233909876365</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>224.4233909876365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>55.42359072596895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>55.42359072596895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7120,25 +7122,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245972</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V37" t="n">
-        <v>513.8405610245972</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W37" t="n">
-        <v>224.4233909876365</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X37" t="n">
-        <v>224.4233909876365</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.4233909876365</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>850.7171392082163</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C38" t="n">
-        <v>850.7171392082163</v>
+        <v>649.5437640718976</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082163</v>
+        <v>649.5437640718976</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
@@ -7190,10 +7192,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7202,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982761</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y38" t="n">
-        <v>850.7171392082163</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7248,46 +7250,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.2718927217162</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2718927217162</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2718927217162</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2718927217162</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7357,25 +7359,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>599.9099084499733</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U40" t="n">
-        <v>599.9099084499733</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V40" t="n">
-        <v>599.9099084499733</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W40" t="n">
-        <v>599.9099084499733</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X40" t="n">
-        <v>371.9203575519559</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y40" t="n">
-        <v>371.9203575519559</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>214.538678027849</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253592</v>
+        <v>214.538678027849</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>214.538678027849</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036446</v>
+        <v>214.538678027849</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>214.538678027849</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>214.538678027849</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036446</v>
@@ -7439,22 +7441,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2515.389212908142</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U41" t="n">
-        <v>2261.627427546233</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>1930.564540202663</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>1930.564540202663</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X41" t="n">
-        <v>1557.098781941583</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="Y41" t="n">
-        <v>1166.959449965771</v>
+        <v>601.1385180919708</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036446</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.98965010333333</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="C43" t="n">
-        <v>97.98965010333333</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="D43" t="n">
-        <v>97.98965010333333</v>
+        <v>2170.876182214547</v>
       </c>
       <c r="E43" t="n">
-        <v>97.98965010333333</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F43" t="n">
-        <v>97.98965010333333</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G43" t="n">
-        <v>97.98965010333333</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>97.98965010333333</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T43" t="n">
-        <v>352.6741383092202</v>
+        <v>2469.840903686825</v>
       </c>
       <c r="U43" t="n">
-        <v>352.6741383092202</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="V43" t="n">
-        <v>97.98965010333333</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="W43" t="n">
-        <v>97.98965010333333</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="X43" t="n">
-        <v>97.98965010333333</v>
+        <v>2180.667293341393</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.98965010333333</v>
+        <v>2180.667293341393</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1902.75190621448</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C44" t="n">
-        <v>1533.789389274068</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D44" t="n">
-        <v>1175.523690667318</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>789.7354380690736</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>378.749533279466</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>378.749533279466</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036446</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278602</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X44" t="n">
-        <v>2289.351746278602</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y44" t="n">
-        <v>2289.351746278602</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>325.6879402326646</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C46" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036446</v>
@@ -7846,10 +7848,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629043</v>
+        <v>279.346854164887</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999404</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609924</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221036</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>337.2886456526674</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22558,16 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>118.5910057342293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22683,16 +22685,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>143.994419684076</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640523</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.2884486374759</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>149.1294050414822</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22838,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.2266798397538</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>176.6302781386793</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326044</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22996,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>164.9367954821779</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>187.4437379520557</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23103,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>111.7538978549158</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2996914017162</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.11441070893386</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>130.8675288472112</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.0033205926927</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>196.9473153935583</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>49.64801498594913</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.02779476617665</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,16 +23788,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>32.16715461496395</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>96.68503059263367</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>237.390960418449</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>167.180925762728</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>110.427832380893</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>58.23741346252859</v>
       </c>
       <c r="H23" t="n">
-        <v>16.7366541322084</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541048</v>
       </c>
       <c r="H25" t="n">
-        <v>45.48480946279814</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
-        <v>215.874664921063</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>103.670039652534</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4762127602323</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>123.2957420235163</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>135.3263138290204</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.23367420798941</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>10.37815339500088</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>183.7987559614877</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>61.91178510854917</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>63.37316471551415</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>290.5085728942878</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>133.4998189757898</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25360,13 +25362,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>51.79469286292863</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>358.0010819089002</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>301.5612374798943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25569,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>84.53410402016942</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853699</v>
@@ -25597,10 +25599,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>98.09822045918773</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25645,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>164.9330335189474</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.9217538376492</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>138.9222730026345</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>91.35942019219905</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853699</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>2.364286819846654</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,16 +25924,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>325.7540392130735</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D46" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448693.3607796696</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467732.0967585469</v>
+        <v>448693.3607796696</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26332,10 +26334,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266297</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8577.315374774351</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376168</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,25 +26487,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340947</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638.760286980738</v>
+        <v>3638.760286980752</v>
       </c>
       <c r="C6" t="n">
-        <v>84408.19181852847</v>
+        <v>84408.1918185284</v>
       </c>
       <c r="D6" t="n">
-        <v>62013.81764297732</v>
+        <v>84408.19181852843</v>
       </c>
       <c r="E6" t="n">
-        <v>-220543.2152679514</v>
+        <v>-245668.9516273732</v>
       </c>
       <c r="F6" t="n">
-        <v>187177.2224156229</v>
+        <v>187177.222415623</v>
       </c>
       <c r="G6" t="n">
         <v>187177.2224156229</v>
       </c>
       <c r="H6" t="n">
+        <v>187177.222415623</v>
+      </c>
+      <c r="I6" t="n">
         <v>187177.2224156229</v>
-      </c>
-      <c r="I6" t="n">
-        <v>187177.222415623</v>
       </c>
       <c r="J6" t="n">
         <v>124117.2798165167</v>
@@ -26549,13 +26551,13 @@
         <v>187177.222415623</v>
       </c>
       <c r="L6" t="n">
-        <v>181551.5801870973</v>
+        <v>187177.222415623</v>
       </c>
       <c r="M6" t="n">
-        <v>84743.10472498779</v>
+        <v>79203.86174156486</v>
       </c>
       <c r="N6" t="n">
-        <v>187177.2224156229</v>
+        <v>187177.222415623</v>
       </c>
       <c r="O6" t="n">
         <v>187177.2224156229</v>
@@ -26741,31 +26743,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170867</v>
@@ -26790,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,25 +26807,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545557</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792211</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776592</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6969052949493</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35501,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
